--- a/rep_output/Panel_A.xlsx
+++ b/rep_output/Panel_A.xlsx
@@ -12,141 +12,138 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
-  <si>
-    <t xml:space="preserve">Panel A. Semiparametric correction procedure</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(1)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(2)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(3)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(4)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(5)</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
+  <si>
+    <t xml:space="preserve">Panel B. Parametric correction procedure</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(6)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(7)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(8)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(9)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$\Delta$ price shock</t>
+  </si>
+  <si>
+    <t xml:space="preserve"/>
+  </si>
+  <si>
+    <t xml:space="preserve">0.518</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.525</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1.610</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1.907</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.457)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.783)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.839)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$\Delta$ price shock $\times$ $\widehat{\lambda}$</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.265</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.917</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.404)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.378)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$\Delta$ price shock $\times$ share households $&gt;$ 0.1 Ha</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.091</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.793)</t>
   </si>
   <si>
     <t xml:space="preserve">$\Delta$ rainfall shock</t>
   </si>
   <si>
-    <t xml:space="preserve">0.077</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.231</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.061</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.487</t>
-  </si>
-  <si>
-    <t xml:space="preserve"/>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.133)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.053)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.059)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.060)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.297)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$\Delta$ price shock</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.078</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.011</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.010</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.576</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.167</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.443)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.229)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.293)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.115)</t>
+    <t xml:space="preserve">0.244</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.034</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.099</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.028</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.137)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.174)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.178)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.190)</t>
   </si>
   <si>
     <t xml:space="preserve">$\Delta$ rainfall shock $\times$ $\widehat{\lambda}$</t>
   </si>
   <si>
-    <t xml:space="preserve">0.098</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.127</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.263</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.110)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.111)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.556)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$\Delta$ price shock $\times$ $\widehat{\lambda}$</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.952</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-1.181</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.529)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.669)</t>
+    <t xml:space="preserve">0.128</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.088</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.037</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.057)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.061)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.062)</t>
   </si>
   <si>
     <t xml:space="preserve">$\Delta$ rainfall shock $\times$ share households $&gt;$ 0.1 Ha</t>
   </si>
   <si>
-    <t xml:space="preserve">(0.061)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$\Delta$ price shock $\times$ share households $&gt;$ 0.1 Ha</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.172</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.129)</t>
+    <t xml:space="preserve">0.399</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.142)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">\textbf{Number of villages}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24855</t>
   </si>
 </sst>
 </file>
@@ -520,222 +517,282 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
         <v>12</v>
       </c>
-      <c r="B3" t="s">
+      <c r="D3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" t="s">
         <v>13</v>
       </c>
-      <c r="C3" t="s">
+      <c r="F3" t="s">
         <v>14</v>
-      </c>
-      <c r="D3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F3" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B4" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="E4" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="F4" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="D5" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="E5" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="F5" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C6" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D6" t="s">
-        <v>29</v>
+        <v>7</v>
       </c>
       <c r="E6" t="s">
-        <v>30</v>
+        <v>7</v>
       </c>
       <c r="F6" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C7" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D7" t="s">
-        <v>32</v>
+        <v>7</v>
       </c>
       <c r="E7" t="s">
-        <v>33</v>
+        <v>7</v>
       </c>
       <c r="F7" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="B8" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="D8" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="E8" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="F8" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C9" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="D9" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="E9" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="F9" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="B10" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C10" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D10" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="E10" t="s">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="F10" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="B11" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C11" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D11" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="E11" t="s">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="F11" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B12" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C12" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D12" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="E12" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="F12" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="B13" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C13" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D13" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="E13" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="F13" t="s">
-        <v>44</v>
+        <v>41</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>7</v>
+      </c>
+      <c r="B14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" t="s">
+        <v>7</v>
+      </c>
+      <c r="D14" t="s">
+        <v>7</v>
+      </c>
+      <c r="E14" t="s">
+        <v>7</v>
+      </c>
+      <c r="F14" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>7</v>
+      </c>
+      <c r="B15" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" t="s">
+        <v>7</v>
+      </c>
+      <c r="D15" t="s">
+        <v>7</v>
+      </c>
+      <c r="E15" t="s">
+        <v>7</v>
+      </c>
+      <c r="F15" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>42</v>
+      </c>
+      <c r="B16" t="s">
+        <v>43</v>
+      </c>
+      <c r="C16" t="s">
+        <v>43</v>
+      </c>
+      <c r="D16" t="s">
+        <v>43</v>
+      </c>
+      <c r="E16" t="s">
+        <v>43</v>
+      </c>
+      <c r="F16" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>
